--- a/Data Mix/ResultatExcel/GrandEst.xlsx
+++ b/Data Mix/ResultatExcel/GrandEst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,30 +451,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Thermique</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nucleaire</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Eolien</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Solaire</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Hydraulique</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BioEnergie</t>
         </is>
@@ -495,21 +500,24 @@
         <v>9732409</v>
       </c>
       <c r="D2" t="n">
+        <v>19817086</v>
+      </c>
+      <c r="E2" t="n">
         <v>3041047</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>14501127</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>550854</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>14825</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>1621295</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>87938</v>
       </c>
     </row>
@@ -528,21 +536,24 @@
         <v>18912242</v>
       </c>
       <c r="D3" t="n">
+        <v>37913986</v>
+      </c>
+      <c r="E3" t="n">
         <v>6785990</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>26670648</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1215166</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>42990</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>3032029</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>167163</v>
       </c>
     </row>
@@ -561,21 +572,24 @@
         <v>28308733</v>
       </c>
       <c r="D4" t="n">
+        <v>56914539</v>
+      </c>
+      <c r="E4" t="n">
         <v>10181125</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>40105368</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>1846992</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>102091</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>4420359</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>258604</v>
       </c>
     </row>
@@ -594,21 +608,24 @@
         <v>36083374</v>
       </c>
       <c r="D5" t="n">
+        <v>74562978</v>
+      </c>
+      <c r="E5" t="n">
         <v>11988648</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>53414786</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>2571449</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>184991</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>6084986</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>318118</v>
       </c>
     </row>
@@ -627,21 +644,24 @@
         <v>43321395</v>
       </c>
       <c r="D6" t="n">
+        <v>91579792</v>
+      </c>
+      <c r="E6" t="n">
         <v>12499748</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>67389957</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>3017559</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>269594</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>8021493</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>381441</v>
       </c>
     </row>
@@ -660,21 +680,24 @@
         <v>49922386</v>
       </c>
       <c r="D7" t="n">
+        <v>106163986</v>
+      </c>
+      <c r="E7" t="n">
         <v>12922886</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>79012695</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>3518275</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>380868</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>9882718</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>446544</v>
       </c>
     </row>
@@ -693,21 +716,24 @@
         <v>56675985</v>
       </c>
       <c r="D8" t="n">
+        <v>122373147</v>
+      </c>
+      <c r="E8" t="n">
         <v>13853805</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>91816524</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>3968673</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>509626</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>11715358</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>509161</v>
       </c>
     </row>
@@ -726,21 +752,24 @@
         <v>62665937</v>
       </c>
       <c r="D9" t="n">
+        <v>137625352</v>
+      </c>
+      <c r="E9" t="n">
         <v>14845862</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>104240708</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>4249789</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>623606</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>13090900</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>574487</v>
       </c>
     </row>
@@ -759,21 +788,24 @@
         <v>69446155</v>
       </c>
       <c r="D10" t="n">
+        <v>152889630</v>
+      </c>
+      <c r="E10" t="n">
         <v>16578553</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>115833566</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>4714829</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>706147</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>14423767</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>632768</v>
       </c>
     </row>
@@ -792,21 +824,24 @@
         <v>77167495</v>
       </c>
       <c r="D11" t="n">
+        <v>168079964</v>
+      </c>
+      <c r="E11" t="n">
         <v>18812062</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>126438746</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>5483183</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>757343</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>15879928</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>708702</v>
       </c>
     </row>
@@ -825,21 +860,24 @@
         <v>85883056</v>
       </c>
       <c r="D12" t="n">
+        <v>188132203</v>
+      </c>
+      <c r="E12" t="n">
         <v>21567483</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>141198359</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>6358312</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>781878</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>17424902</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>801269</v>
       </c>
     </row>
@@ -858,21 +896,24 @@
         <v>95078305</v>
       </c>
       <c r="D13" t="n">
+        <v>208454988</v>
+      </c>
+      <c r="E13" t="n">
         <v>24304117</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>156360981</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>7349807</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>808507</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>18736876</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>894700</v>
       </c>
     </row>
@@ -891,21 +932,24 @@
         <v>633197472</v>
       </c>
       <c r="D14" t="n">
+        <v>1364507651</v>
+      </c>
+      <c r="E14" t="n">
         <v>167381326</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1016983465</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>44844888</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>5182466</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>124334611</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>5780895</v>
       </c>
     </row>
@@ -924,21 +968,24 @@
         <v>104255257</v>
       </c>
       <c r="D15" t="n">
+        <v>228698306</v>
+      </c>
+      <c r="E15" t="n">
         <v>25777243</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>172490263</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>8420623</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>834790</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>20157634</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>1017753</v>
       </c>
     </row>
@@ -957,21 +1004,24 @@
         <v>112572358</v>
       </c>
       <c r="D16" t="n">
+        <v>247620654</v>
+      </c>
+      <c r="E16" t="n">
         <v>27361812</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>187206925</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>9640478</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>871513</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>21408345</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>1131581</v>
       </c>
     </row>
@@ -990,21 +1040,24 @@
         <v>120735732</v>
       </c>
       <c r="D17" t="n">
+        <v>264977534</v>
+      </c>
+      <c r="E17" t="n">
         <v>28641711</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>201312053</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>10175403</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>966219</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>22624904</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>1257244</v>
       </c>
     </row>
@@ -1023,21 +1076,24 @@
         <v>127755710</v>
       </c>
       <c r="D18" t="n">
+        <v>277975361</v>
+      </c>
+      <c r="E18" t="n">
         <v>29623559</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>211629076</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>10587875</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>1066120</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>23731807</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>1336924</v>
       </c>
     </row>
@@ -1056,21 +1112,24 @@
         <v>134618408</v>
       </c>
       <c r="D19" t="n">
+        <v>292504885</v>
+      </c>
+      <c r="E19" t="n">
         <v>30169857</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>223053555</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>11314361</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>1183901</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>25359915</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>1423296</v>
       </c>
     </row>
@@ -1089,21 +1148,24 @@
         <v>141142536</v>
       </c>
       <c r="D20" t="n">
+        <v>307057451</v>
+      </c>
+      <c r="E20" t="n">
         <v>30736061</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>235012613</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>11811384</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>1322738</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>26676559</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>1498096</v>
       </c>
     </row>
@@ -1122,21 +1184,24 @@
         <v>147815020</v>
       </c>
       <c r="D21" t="n">
+        <v>324889393</v>
+      </c>
+      <c r="E21" t="n">
         <v>30974883</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>250085719</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>12217921</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>1431910</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>28601017</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>1577943</v>
       </c>
     </row>
@@ -1155,21 +1220,24 @@
         <v>153698692</v>
       </c>
       <c r="D22" t="n">
+        <v>342124208</v>
+      </c>
+      <c r="E22" t="n">
         <v>31084975</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>264610314</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>12670107</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>1534021</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>30564718</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>1660073</v>
       </c>
     </row>
@@ -1188,21 +1256,24 @@
         <v>160361379</v>
       </c>
       <c r="D23" t="n">
+        <v>359979247</v>
+      </c>
+      <c r="E23" t="n">
         <v>31814982</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>279693080</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>13019661</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>1630582</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>32092232</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>1728710</v>
       </c>
     </row>
@@ -1221,21 +1292,24 @@
         <v>167827926</v>
       </c>
       <c r="D24" t="n">
+        <v>377944677</v>
+      </c>
+      <c r="E24" t="n">
         <v>33358221</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>294046326</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>13570067</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>1688586</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>33456139</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>1825338</v>
       </c>
     </row>
@@ -1254,21 +1328,24 @@
         <v>175833071</v>
       </c>
       <c r="D25" t="n">
+        <v>397978257</v>
+      </c>
+      <c r="E25" t="n">
         <v>34730603</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>310426807</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>14258515</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>1715066</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>34904098</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>1943168</v>
       </c>
     </row>
@@ -1287,21 +1364,24 @@
         <v>184837476</v>
       </c>
       <c r="D26" t="n">
+        <v>419718857</v>
+      </c>
+      <c r="E26" t="n">
         <v>36609664</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>327858635</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>15304862</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>1726074</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>36155189</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>2064433</v>
       </c>
     </row>
@@ -1320,21 +1400,24 @@
         <v>2997848509</v>
       </c>
       <c r="D27" t="n">
+        <v>6570484132</v>
+      </c>
+      <c r="E27" t="n">
         <v>705646223</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>4991392296</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>232681033</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>26336452</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>584401779</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>30026349</v>
       </c>
     </row>
@@ -1353,21 +1436,24 @@
         <v>194370228</v>
       </c>
       <c r="D28" t="n">
+        <v>441758491</v>
+      </c>
+      <c r="E28" t="n">
         <v>38953564</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>344644714</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>16464093</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>1744891</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>37767586</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>2183643</v>
       </c>
     </row>
@@ -1386,21 +1472,24 @@
         <v>203179660</v>
       </c>
       <c r="D29" t="n">
+        <v>459809829</v>
+      </c>
+      <c r="E29" t="n">
         <v>41623787</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>357817168</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>17364216</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>1786764</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>38920850</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>2297044</v>
       </c>
     </row>
@@ -1419,21 +1508,24 @@
         <v>211616074</v>
       </c>
       <c r="D30" t="n">
+        <v>474720840</v>
+      </c>
+      <c r="E30" t="n">
         <v>43390982</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>368298457</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>18305441</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>1876537</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>40442272</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>2407151</v>
       </c>
     </row>
@@ -1452,21 +1544,24 @@
         <v>218801908</v>
       </c>
       <c r="D31" t="n">
+        <v>488151430</v>
+      </c>
+      <c r="E31" t="n">
         <v>44164487</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>378334232</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>18999216</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>1992074</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>42147206</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>2514215</v>
       </c>
     </row>
@@ -1485,21 +1580,24 @@
         <v>225503840</v>
       </c>
       <c r="D32" t="n">
+        <v>504508983</v>
+      </c>
+      <c r="E32" t="n">
         <v>44254497</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>391743300</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>19692134</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>2109535</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>44083675</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>2625842</v>
       </c>
     </row>
@@ -1518,21 +1616,24 @@
         <v>232068042</v>
       </c>
       <c r="D33" t="n">
+        <v>520255109</v>
+      </c>
+      <c r="E33" t="n">
         <v>44365336</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>404670167</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>20308105</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>2241180</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>45954093</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>2716228</v>
       </c>
     </row>
@@ -1551,21 +1652,24 @@
         <v>238666251</v>
       </c>
       <c r="D34" t="n">
+        <v>539908553</v>
+      </c>
+      <c r="E34" t="n">
         <v>45070015</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>421325882</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>20984846</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>2377734</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>47342631</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>2807445</v>
       </c>
     </row>
@@ -1584,21 +1688,24 @@
         <v>244642475</v>
       </c>
       <c r="D35" t="n">
+        <v>557680272</v>
+      </c>
+      <c r="E35" t="n">
         <v>45151313</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>437107107</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>21571345</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>2499427</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>48453619</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>2897461</v>
       </c>
     </row>
@@ -1617,21 +1724,24 @@
         <v>251357892</v>
       </c>
       <c r="D36" t="n">
+        <v>573384320</v>
+      </c>
+      <c r="E36" t="n">
         <v>46043004</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>449793941</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>22554014</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>2591328</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>49408275</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>2993758</v>
       </c>
     </row>
@@ -1650,21 +1760,24 @@
         <v>259164022</v>
       </c>
       <c r="D37" t="n">
+        <v>591923400</v>
+      </c>
+      <c r="E37" t="n">
         <v>48180748</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>464475675</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>23153916</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>2645591</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>50367898</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>3099572</v>
       </c>
     </row>
@@ -1683,21 +1796,24 @@
         <v>267223406</v>
       </c>
       <c r="D38" t="n">
+        <v>612543856</v>
+      </c>
+      <c r="E38" t="n">
         <v>50163223</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>480750881</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>24455849</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>2678470</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>51275046</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>3220387</v>
       </c>
     </row>
@@ -1716,21 +1832,24 @@
         <v>275478245</v>
       </c>
       <c r="D39" t="n">
+        <v>633986767</v>
+      </c>
+      <c r="E39" t="n">
         <v>51774319</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>498224984</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>25638217</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>2711108</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>52295879</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>3342260</v>
       </c>
     </row>
@@ -1749,21 +1868,24 @@
         <v>8817769061</v>
       </c>
       <c r="D40" t="n">
+        <v>19539600114</v>
+      </c>
+      <c r="E40" t="n">
         <v>1954427721</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>14979971100</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>714853458</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>79927543</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>1717262588</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>93157704</v>
       </c>
     </row>
@@ -1782,21 +1904,24 @@
         <v>284941024</v>
       </c>
       <c r="D41" t="n">
+        <v>656576464</v>
+      </c>
+      <c r="E41" t="n">
         <v>53531680</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>515999959</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>27097168</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>2741639</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>53701452</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>3504566</v>
       </c>
     </row>
@@ -1815,21 +1940,24 @@
         <v>293695387</v>
       </c>
       <c r="D42" t="n">
+        <v>676040458</v>
+      </c>
+      <c r="E42" t="n">
         <v>54701312</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>530898293</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>28707525</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>2780949</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>55301133</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>3651246</v>
       </c>
     </row>
@@ -1848,21 +1976,24 @@
         <v>302649057</v>
       </c>
       <c r="D43" t="n">
+        <v>695425731</v>
+      </c>
+      <c r="E43" t="n">
         <v>56503879</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>545574537</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>29967665</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>2856620</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>56722081</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>3800949</v>
       </c>
     </row>
@@ -1881,21 +2012,24 @@
         <v>310239764</v>
       </c>
       <c r="D44" t="n">
+        <v>713329912</v>
+      </c>
+      <c r="E44" t="n">
         <v>57445134</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>559904228</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>30730230</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>2951798</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>58371689</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>3926833</v>
       </c>
     </row>
@@ -1914,21 +2048,24 @@
         <v>317168497</v>
       </c>
       <c r="D45" t="n">
+        <v>729348067</v>
+      </c>
+      <c r="E45" t="n">
         <v>57914409</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>572592431</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>31370674</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>3066923</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>60349773</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>4053857</v>
       </c>
     </row>
@@ -1947,21 +2084,24 @@
         <v>323689122</v>
       </c>
       <c r="D46" t="n">
+        <v>744560376</v>
+      </c>
+      <c r="E46" t="n">
         <v>58632426</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>584476720</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>31798348</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>3175625</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>62321868</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>4155389</v>
       </c>
     </row>
@@ -1980,21 +2120,24 @@
         <v>330190753</v>
       </c>
       <c r="D47" t="n">
+        <v>761062962</v>
+      </c>
+      <c r="E47" t="n">
         <v>59656376</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>597328784</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>32174619</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>3307883</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>64330052</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>4265248</v>
       </c>
     </row>
@@ -2013,21 +2156,24 @@
         <v>336245194</v>
       </c>
       <c r="D48" t="n">
+        <v>776490778</v>
+      </c>
+      <c r="E48" t="n">
         <v>60864061</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>609184893</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>32607339</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>3436623</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>66031733</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>4366129</v>
       </c>
     </row>
@@ -2046,21 +2192,24 @@
         <v>342911984</v>
       </c>
       <c r="D49" t="n">
+        <v>794081705</v>
+      </c>
+      <c r="E49" t="n">
         <v>63236362</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>622550075</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>33000070</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>3539338</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>67284208</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>4471652</v>
       </c>
     </row>
@@ -2079,21 +2228,24 @@
         <v>350648447</v>
       </c>
       <c r="D50" t="n">
+        <v>810776999</v>
+      </c>
+      <c r="E50" t="n">
         <v>65891154</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>634722694</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>33712517</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>3618130</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>68235097</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>4597407</v>
       </c>
     </row>
@@ -2112,21 +2264,24 @@
         <v>359311985</v>
       </c>
       <c r="D51" t="n">
+        <v>830690581</v>
+      </c>
+      <c r="E51" t="n">
         <v>68840871</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>649082079</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>34858849</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>3651384</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>69496786</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>4760612</v>
       </c>
     </row>
@@ -2145,21 +2300,24 @@
         <v>368786822</v>
       </c>
       <c r="D52" t="n">
+        <v>850147724</v>
+      </c>
+      <c r="E52" t="n">
         <v>72131027</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>663555098</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>35516752</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>3683446</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>70324341</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>4937060</v>
       </c>
     </row>
@@ -2178,21 +2336,24 @@
         <v>21556016158</v>
       </c>
       <c r="D53" t="n">
+        <v>48117731985</v>
+      </c>
+      <c r="E53" t="n">
         <v>4638204133</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>37045811991</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>1811248672</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>198665444</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>4186995389</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>236806356</v>
       </c>
     </row>
@@ -2211,21 +2372,24 @@
         <v>379372285</v>
       </c>
       <c r="D54" t="n">
+        <v>872482906</v>
+      </c>
+      <c r="E54" t="n">
         <v>75678287</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>680433229</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>36497999</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>3715962</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>71049728</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>5107701</v>
       </c>
     </row>
@@ -2244,21 +2408,24 @@
         <v>387741697</v>
       </c>
       <c r="D55" t="n">
+        <v>891668089</v>
+      </c>
+      <c r="E55" t="n">
         <v>78461157</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>694393747</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>37694891</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>3757622</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>72109049</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>5251623</v>
       </c>
     </row>
@@ -2277,21 +2444,24 @@
         <v>395981957</v>
       </c>
       <c r="D56" t="n">
+        <v>907942086</v>
+      </c>
+      <c r="E56" t="n">
         <v>80496572</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>705459474</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>39082182</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>3843044</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>73670421</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>5390393</v>
       </c>
     </row>
@@ -2310,21 +2480,24 @@
         <v>403169185</v>
       </c>
       <c r="D57" t="n">
+        <v>921756967</v>
+      </c>
+      <c r="E57" t="n">
         <v>82042507</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>715795635</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>39653897</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>3960794</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>74791436</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>5512698</v>
       </c>
     </row>
@@ -2343,21 +2516,24 @@
         <v>410102010</v>
       </c>
       <c r="D58" t="n">
+        <v>938144581</v>
+      </c>
+      <c r="E58" t="n">
         <v>83505235</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>728212474</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>40257254</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>4095518</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>76430471</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>5643629</v>
       </c>
     </row>
@@ -2376,21 +2552,24 @@
         <v>416709984</v>
       </c>
       <c r="D59" t="n">
+        <v>955002004</v>
+      </c>
+      <c r="E59" t="n">
         <v>84613868</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>741512402</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>40942604</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>4241579</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>77943294</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>5748257</v>
       </c>
     </row>
@@ -2409,21 +2588,24 @@
         <v>423345520</v>
       </c>
       <c r="D60" t="n">
+        <v>973811573</v>
+      </c>
+      <c r="E60" t="n">
         <v>86112247</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>756478612</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>41684370</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>4369453</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>79304616</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>5862275</v>
       </c>
     </row>
@@ -2442,21 +2624,24 @@
         <v>429355303</v>
       </c>
       <c r="D61" t="n">
+        <v>988204867</v>
+      </c>
+      <c r="E61" t="n">
         <v>86995036</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>767808976</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>42196264</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>4488215</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>80734955</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>5981421</v>
       </c>
     </row>
@@ -2475,21 +2660,24 @@
         <v>436177792</v>
       </c>
       <c r="D62" t="n">
+        <v>1002938304</v>
+      </c>
+      <c r="E62" t="n">
         <v>88444516</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>778624514</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>42964014</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>4580614</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>82218653</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>6105993</v>
       </c>
     </row>
@@ -2508,21 +2696,24 @@
         <v>443749595</v>
       </c>
       <c r="D63" t="n">
+        <v>1019068382</v>
+      </c>
+      <c r="E63" t="n">
         <v>91213630</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>789613361</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>43925036</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>4649863</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>83421984</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>6244508</v>
       </c>
     </row>
@@ -2541,21 +2732,24 @@
         <v>452386186</v>
       </c>
       <c r="D64" t="n">
+        <v>1036919661</v>
+      </c>
+      <c r="E64" t="n">
         <v>93934746</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>802121157</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>45001418</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>4678685</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>84764025</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>6419630</v>
       </c>
     </row>
@@ -2574,21 +2768,24 @@
         <v>461665537</v>
       </c>
       <c r="D65" t="n">
+        <v>1058031351</v>
+      </c>
+      <c r="E65" t="n">
         <v>96532995</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>817224202</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>46651453</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>4695469</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>86325519</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>6601713</v>
       </c>
     </row>
@@ -2607,21 +2804,24 @@
         <v>48151789367</v>
       </c>
       <c r="D66" t="n">
+        <v>107801434741</v>
+      </c>
+      <c r="E66" t="n">
         <v>10304439062</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>83069301765</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>4119048726</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>448407706</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>9316754929</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>543482553</v>
       </c>
     </row>
@@ -2640,21 +2840,24 @@
         <v>470635492</v>
       </c>
       <c r="D67" t="n">
+        <v>1078794354</v>
+      </c>
+      <c r="E67" t="n">
         <v>97460913</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>833141282</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>48641802</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>4744002</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>88065212</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>6741143</v>
       </c>
     </row>
@@ -2673,21 +2876,24 @@
         <v>479783535</v>
       </c>
       <c r="D68" t="n">
+        <v>1098444092</v>
+      </c>
+      <c r="E68" t="n">
         <v>99796750</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>847585919</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>49868282</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>4860036</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>89462841</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>6870264</v>
       </c>
     </row>
@@ -2706,21 +2912,24 @@
         <v>488944697</v>
       </c>
       <c r="D69" t="n">
+        <v>1117762516</v>
+      </c>
+      <c r="E69" t="n">
         <v>101825164</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>861843050</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>51219237</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>5005296</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>90850020</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>7019749</v>
       </c>
     </row>
@@ -2739,21 +2948,24 @@
         <v>495967379</v>
       </c>
       <c r="D70" t="n">
+        <v>1132945797</v>
+      </c>
+      <c r="E70" t="n">
         <v>102309676</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>873665828</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>52247825</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>5206118</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>92373462</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>7142888</v>
       </c>
     </row>
@@ -2772,21 +2984,24 @@
         <v>502688435</v>
       </c>
       <c r="D71" t="n">
+        <v>1149608371</v>
+      </c>
+      <c r="E71" t="n">
         <v>102487494</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>887358901</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>52953373</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>5430654</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>94097256</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>7280693</v>
       </c>
     </row>
@@ -2805,21 +3020,24 @@
         <v>509289914</v>
       </c>
       <c r="D72" t="n">
+        <v>1165990627</v>
+      </c>
+      <c r="E72" t="n">
         <v>102738570</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>900988754</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>53465530</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>5653525</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>95721796</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>7422452</v>
       </c>
     </row>
@@ -2838,21 +3056,24 @@
         <v>516076564</v>
       </c>
       <c r="D73" t="n">
+        <v>1180651902</v>
+      </c>
+      <c r="E73" t="n">
         <v>104452595</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>911996414</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>53944032</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>5892221</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>96786479</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>7580161</v>
       </c>
     </row>
@@ -2871,21 +3092,24 @@
         <v>522256177</v>
       </c>
       <c r="D74" t="n">
+        <v>1190979140</v>
+      </c>
+      <c r="E74" t="n">
         <v>105736139</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>919250131</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>54542717</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>6111365</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>97605888</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>7732900</v>
       </c>
     </row>
@@ -2904,21 +3128,24 @@
         <v>528831694</v>
       </c>
       <c r="D75" t="n">
+        <v>1205487776</v>
+      </c>
+      <c r="E75" t="n">
         <v>107237206</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>930424576</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>55239180</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>6312359</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>98407170</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>7867285</v>
       </c>
     </row>
@@ -2937,21 +3164,24 @@
         <v>536415382</v>
       </c>
       <c r="D76" t="n">
+        <v>1223540161</v>
+      </c>
+      <c r="E76" t="n">
         <v>109587065</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>944050208</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>56311183</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>6486960</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>99113686</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>7991059</v>
       </c>
     </row>
@@ -2970,21 +3200,24 @@
         <v>544830158</v>
       </c>
       <c r="D77" t="n">
+        <v>1245037006</v>
+      </c>
+      <c r="E77" t="n">
         <v>112287050</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>960784693</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>57553962</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>6585175</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>99693183</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>8132943</v>
       </c>
     </row>
@@ -3003,21 +3236,24 @@
         <v>553534454</v>
       </c>
       <c r="D78" t="n">
+        <v>1267466237</v>
+      </c>
+      <c r="E78" t="n">
         <v>113971560</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>978278775</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>59329331</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>6624434</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>100967540</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>8294597</v>
       </c>
     </row>
@@ -3036,21 +3272,24 @@
         <v>102452832615</v>
       </c>
       <c r="D79" t="n">
+        <v>229659577461</v>
+      </c>
+      <c r="E79" t="n">
         <v>21868768306</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>176987972061</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>8883413906</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>965727557</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>19776654391</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>1177041240</v>
       </c>
     </row>
@@ -3069,21 +3308,24 @@
         <v>563287382</v>
       </c>
       <c r="D80" t="n">
+        <v>1289918675</v>
+      </c>
+      <c r="E80" t="n">
         <v>116736989</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>995189893</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>60679649</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>6681665</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>102168697</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>8461782</v>
       </c>
     </row>
@@ -3102,21 +3344,24 @@
         <v>571557157</v>
       </c>
       <c r="D81" t="n">
+        <v>1308077143</v>
+      </c>
+      <c r="E81" t="n">
         <v>118723417</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>1008862784</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>61827492</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>6811780</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>103234870</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>8616800</v>
       </c>
     </row>
@@ -3135,21 +3380,24 @@
         <v>579850441</v>
       </c>
       <c r="D82" t="n">
+        <v>1326897887</v>
+      </c>
+      <c r="E82" t="n">
         <v>119775886</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>1022653816</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>64008479</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>6983924</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>104684250</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>8791532</v>
       </c>
     </row>
@@ -3168,21 +3416,24 @@
         <v>587208643</v>
       </c>
       <c r="D83" t="n">
+        <v>1342718826</v>
+      </c>
+      <c r="E83" t="n">
         <v>120954513</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>1034700419</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>65012909</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>7175838</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>105920900</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>8954247</v>
       </c>
     </row>
@@ -3201,21 +3452,24 @@
         <v>594317419</v>
       </c>
       <c r="D84" t="n">
+        <v>1356603049</v>
+      </c>
+      <c r="E84" t="n">
         <v>122021804</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>1044592244</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>65911330</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>7397246</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>107560618</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>9119807</v>
       </c>
     </row>
@@ -3234,21 +3488,24 @@
         <v>600795467</v>
       </c>
       <c r="D85" t="n">
+        <v>1369260627</v>
+      </c>
+      <c r="E85" t="n">
         <v>122878875</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>1053370717</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>66727067</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>7630653</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>109376473</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>9276842</v>
       </c>
     </row>
@@ -3267,21 +3524,24 @@
         <v>607468418</v>
       </c>
       <c r="D86" t="n">
+        <v>1382374618</v>
+      </c>
+      <c r="E86" t="n">
         <v>124489150</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>1062193517</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>67437771</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>7872838</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>110933673</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>9447669</v>
       </c>
     </row>
@@ -3300,21 +3560,24 @@
         <v>613464915</v>
       </c>
       <c r="D87" t="n">
+        <v>1396001100</v>
+      </c>
+      <c r="E87" t="n">
         <v>125548958</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>1072074651</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>68100086</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>8103080</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>112549840</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>9624485</v>
       </c>
     </row>
@@ -3333,21 +3596,24 @@
         <v>619893115</v>
       </c>
       <c r="D88" t="n">
+        <v>1410671763</v>
+      </c>
+      <c r="E88" t="n">
         <v>127314402</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>1082234889</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>69262987</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>8306199</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>113771351</v>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>9781935</v>
       </c>
     </row>
@@ -3366,21 +3632,24 @@
         <v>627354478</v>
       </c>
       <c r="D89" t="n">
+        <v>1431340130</v>
+      </c>
+      <c r="E89" t="n">
         <v>129092321</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>1097757240</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>70878391</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>8466818</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>115197237</v>
       </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>9948123</v>
       </c>
     </row>
@@ -3399,21 +3668,24 @@
         <v>635760335</v>
       </c>
       <c r="D90" t="n">
+        <v>1453145908</v>
+      </c>
+      <c r="E90" t="n">
         <v>131467650</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>1113920066</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>72472372</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>8561545</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>116600547</v>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>10123728</v>
       </c>
     </row>
@@ -3432,21 +3704,24 @@
         <v>644639783</v>
       </c>
       <c r="D91" t="n">
+        <v>1475894785</v>
+      </c>
+      <c r="E91" t="n">
         <v>133242059</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>1130923740</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>74665064</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>8621177</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>118135418</v>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>10307327</v>
       </c>
     </row>
@@ -3465,21 +3740,24 @@
         <v>212151262783</v>
       </c>
       <c r="D92" t="n">
+        <v>475862059433</v>
+      </c>
+      <c r="E92" t="n">
         <v>45229782636</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>366694418098</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>18573811409</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>2024067877</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>40873442656</v>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>2466536757</v>
       </c>
     </row>
@@ -3498,21 +3776,24 @@
         <v>653763625</v>
       </c>
       <c r="D93" t="n">
+        <v>1498623984</v>
+      </c>
+      <c r="E93" t="n">
         <v>135492684</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>1148195305</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>76520934</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>8661071</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>119268325</v>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>10485665</v>
       </c>
     </row>
@@ -3531,21 +3812,24 @@
         <v>661873442</v>
       </c>
       <c r="D94" t="n">
+        <v>1516726278</v>
+      </c>
+      <c r="E94" t="n">
         <v>136891244</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>1160392374</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>79335933</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>8723033</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>120734738</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>10648956</v>
       </c>
     </row>
@@ -3564,21 +3848,24 @@
         <v>669453977</v>
       </c>
       <c r="D95" t="n">
+        <v>1530395017</v>
+      </c>
+      <c r="E95" t="n">
         <v>138149040</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>1168756350</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>81511464</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>8829642</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>122321154</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>10827367</v>
       </c>
     </row>
@@ -3597,21 +3884,24 @@
         <v>675105171</v>
       </c>
       <c r="D96" t="n">
+        <v>1540110808</v>
+      </c>
+      <c r="E96" t="n">
         <v>138265452</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>1175909981</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>82580207</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>8986412</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>123374315</v>
       </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>10994441</v>
       </c>
     </row>
@@ -3630,21 +3920,24 @@
         <v>681039398</v>
       </c>
       <c r="D97" t="n">
+        <v>1549657469</v>
+      </c>
+      <c r="E97" t="n">
         <v>138742224</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>1182210599</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>83642901</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>9161343</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>124730011</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>11170391</v>
       </c>
     </row>
@@ -3663,21 +3956,24 @@
         <v>687155248</v>
       </c>
       <c r="D98" t="n">
+        <v>1561651509</v>
+      </c>
+      <c r="E98" t="n">
         <v>140055562</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>1190308133</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>84494553</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>9316428</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>126125620</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>11351213</v>
       </c>
     </row>
@@ -3696,21 +3992,24 @@
         <v>693544108</v>
       </c>
       <c r="D99" t="n">
+        <v>1573514956</v>
+      </c>
+      <c r="E99" t="n">
         <v>140633533</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>1199026126</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>85336823</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>9493345</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>127489787</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>11535342</v>
       </c>
     </row>
@@ -3729,21 +4028,24 @@
         <v>699415975</v>
       </c>
       <c r="D100" t="n">
+        <v>1586126485</v>
+      </c>
+      <c r="E100" t="n">
         <v>141365460</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>1208529938</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>86170419</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>9650204</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>128691762</v>
       </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>11718702</v>
       </c>
     </row>
@@ -3762,21 +4064,24 @@
         <v>705770076</v>
       </c>
       <c r="D101" t="n">
+        <v>1597052557</v>
+      </c>
+      <c r="E101" t="n">
         <v>142572609</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>1215979604</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>87046246</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>9776515</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>129791681</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J101" t="n">
         <v>11885902</v>
       </c>
     </row>
@@ -3795,21 +4100,24 @@
         <v>713314154</v>
       </c>
       <c r="D102" t="n">
+        <v>1615053544</v>
+      </c>
+      <c r="E102" t="n">
         <v>143762315</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>1229136267</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>89094546</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>9843520</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>131152882</v>
       </c>
-      <c r="I102" t="n">
+      <c r="J102" t="n">
         <v>12064014</v>
       </c>
     </row>
@@ -3828,21 +4136,24 @@
         <v>721169699</v>
       </c>
       <c r="D103" t="n">
+        <v>1633979246</v>
+      </c>
+      <c r="E103" t="n">
         <v>145201220</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>1243917975</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>90388829</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
         <v>9904032</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>132326658</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J103" t="n">
         <v>12240532</v>
       </c>
     </row>
@@ -3861,21 +4172,24 @@
         <v>729777571</v>
       </c>
       <c r="D104" t="n">
+        <v>1652488465</v>
+      </c>
+      <c r="E104" t="n">
         <v>146756794</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>1257579311</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>92226546</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>9932444</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>133574871</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J104" t="n">
         <v>12418499</v>
       </c>
     </row>
@@ -3894,21 +4208,24 @@
         <v>432593908010</v>
       </c>
       <c r="D105" t="n">
+        <v>970579499184</v>
+      </c>
+      <c r="E105" t="n">
         <v>92147453409</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>747768778159</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>38165972219</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>4160413743</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>83266467116</v>
       </c>
-      <c r="I105" t="n">
+      <c r="J105" t="n">
         <v>5070414538</v>
       </c>
     </row>
@@ -3927,21 +4244,24 @@
         <v>739259630</v>
       </c>
       <c r="D106" t="n">
+        <v>1670967887</v>
+      </c>
+      <c r="E106" t="n">
         <v>148720563</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>1270840591</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>93966453</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>9959384</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>134877255</v>
       </c>
-      <c r="I106" t="n">
+      <c r="J106" t="n">
         <v>12603641</v>
       </c>
     </row>
@@ -3960,21 +4280,24 @@
         <v>747280584</v>
       </c>
       <c r="D107" t="n">
+        <v>1685234619</v>
+      </c>
+      <c r="E107" t="n">
         <v>149986878</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>1280249333</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>95818687</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>10030781</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>136370491</v>
       </c>
-      <c r="I107" t="n">
+      <c r="J107" t="n">
         <v>12778449</v>
       </c>
     </row>
@@ -3993,21 +4316,24 @@
         <v>755622046</v>
       </c>
       <c r="D108" t="n">
+        <v>1697923786</v>
+      </c>
+      <c r="E108" t="n">
         <v>150927716</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>1288764260</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>97280343</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>10189830</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>137793117</v>
       </c>
-      <c r="I108" t="n">
+      <c r="J108" t="n">
         <v>12968520</v>
       </c>
     </row>
@@ -4026,21 +4352,24 @@
         <v>762896220</v>
       </c>
       <c r="D109" t="n">
+        <v>1709743872</v>
+      </c>
+      <c r="E109" t="n">
         <v>152304901</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>1296613599</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>98431145</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
         <v>10372920</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>138881975</v>
       </c>
-      <c r="I109" t="n">
+      <c r="J109" t="n">
         <v>13139332</v>
       </c>
     </row>
@@ -4059,21 +4388,24 @@
         <v>769406756</v>
       </c>
       <c r="D110" t="n">
+        <v>1722450304</v>
+      </c>
+      <c r="E110" t="n">
         <v>152671571</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>1305546555</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>100194771</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>10554751</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>140170891</v>
       </c>
-      <c r="I110" t="n">
+      <c r="J110" t="n">
         <v>13311765</v>
       </c>
     </row>
@@ -4092,21 +4424,24 @@
         <v>775760657</v>
       </c>
       <c r="D111" t="n">
+        <v>1735320353</v>
+      </c>
+      <c r="E111" t="n">
         <v>153649908</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>1314823105</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>100666372</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>10777577</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>141916944</v>
       </c>
-      <c r="I111" t="n">
+      <c r="J111" t="n">
         <v>13486447</v>
       </c>
     </row>
@@ -4125,21 +4460,24 @@
         <v>782115284</v>
       </c>
       <c r="D112" t="n">
+        <v>1750318592</v>
+      </c>
+      <c r="E112" t="n">
         <v>154477022</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>1325787266</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>101623789</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>10996395</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>143744782</v>
       </c>
-      <c r="I112" t="n">
+      <c r="J112" t="n">
         <v>13689338</v>
       </c>
     </row>
@@ -4158,21 +4496,24 @@
         <v>787824908</v>
       </c>
       <c r="D113" t="n">
+        <v>1764395192</v>
+      </c>
+      <c r="E113" t="n">
         <v>154815094</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>1336613627</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>102366195</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>11191719</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>145516882</v>
       </c>
-      <c r="I113" t="n">
+      <c r="J113" t="n">
         <v>13891675</v>
       </c>
     </row>
@@ -4191,21 +4532,24 @@
         <v>794234115</v>
       </c>
       <c r="D114" t="n">
+        <v>1777123861</v>
+      </c>
+      <c r="E114" t="n">
         <v>155770810</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>1346079646</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>102972376</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>11403740</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>146800567</v>
       </c>
-      <c r="I114" t="n">
+      <c r="J114" t="n">
         <v>14096722</v>
       </c>
     </row>
@@ -4224,21 +4568,24 @@
         <v>801734443</v>
       </c>
       <c r="D115" t="n">
+        <v>1791340472</v>
+      </c>
+      <c r="E115" t="n">
         <v>156865630</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>1356512433</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>104367401</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>11551577</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>147751373</v>
       </c>
-      <c r="I115" t="n">
+      <c r="J115" t="n">
         <v>14292058</v>
       </c>
     </row>
@@ -4257,21 +4604,24 @@
         <v>810215662</v>
       </c>
       <c r="D116" t="n">
+        <v>1808945282</v>
+      </c>
+      <c r="E116" t="n">
         <v>159641908</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>1369226560</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>105364225</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
         <v>11612904</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>148603942</v>
       </c>
-      <c r="I116" t="n">
+      <c r="J116" t="n">
         <v>14495743</v>
       </c>
     </row>
@@ -4290,21 +4640,24 @@
         <v>819040975</v>
       </c>
       <c r="D117" t="n">
+        <v>1825604048</v>
+      </c>
+      <c r="E117" t="n">
         <v>162092022</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>1380040859</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>107147063</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>11653976</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>149952337</v>
       </c>
-      <c r="I117" t="n">
+      <c r="J117" t="n">
         <v>14717791</v>
       </c>
     </row>
@@ -4323,21 +4676,24 @@
         <v>874533207300</v>
       </c>
       <c r="D118" t="n">
+        <v>1962098366636</v>
+      </c>
+      <c r="E118" t="n">
         <v>186146830841</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>1511408654152</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>77542143258</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>8451123040</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>168245314788</v>
       </c>
-      <c r="I118" t="n">
+      <c r="J118" t="n">
         <v>10304300557</v>
       </c>
     </row>
